--- a/teaching/traditional_assets/database/data/japan/japan_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_insurance_prop_cas.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0507</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="E2">
-        <v>0.07440000000000001</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="F2">
-        <v>0.2055</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="G2">
-        <v>0.08989437648602672</v>
+        <v>0.09232806404336419</v>
       </c>
       <c r="H2">
-        <v>0.08989437648602672</v>
+        <v>0.09232806404336419</v>
       </c>
       <c r="I2">
-        <v>0.08419370672208094</v>
+        <v>0.07454010465713727</v>
       </c>
       <c r="J2">
-        <v>0.06151471453626806</v>
+        <v>0.04947928122819093</v>
       </c>
       <c r="K2">
-        <v>7557.32</v>
+        <v>3808.54</v>
       </c>
       <c r="L2">
-        <v>0.05706131207523891</v>
+        <v>0.02841998907537692</v>
       </c>
       <c r="M2">
-        <v>3795.1852</v>
+        <v>3438.1554</v>
       </c>
       <c r="N2">
-        <v>0.05133526310236522</v>
+        <v>0.05009332556275953</v>
       </c>
       <c r="O2">
-        <v>0.502186648176867</v>
+        <v>0.9027489274105038</v>
       </c>
       <c r="P2">
-        <v>2444.3152</v>
+        <v>2615.1894</v>
       </c>
       <c r="Q2">
-        <v>0.03306283021369035</v>
+        <v>0.03810285422889197</v>
       </c>
       <c r="R2">
-        <v>0.323436773882805</v>
+        <v>0.6866645486196811</v>
       </c>
       <c r="S2">
-        <v>1350.87</v>
+        <v>822.9659999999999</v>
       </c>
       <c r="T2">
-        <v>0.3559431039096591</v>
+        <v>0.2393626535903525</v>
       </c>
       <c r="U2">
-        <v>33272.2</v>
+        <v>36024.7</v>
       </c>
       <c r="V2">
-        <v>0.4500536998812379</v>
+        <v>0.5248736067603992</v>
       </c>
       <c r="W2">
-        <v>0.08734885406619453</v>
+        <v>0.05249677927177185</v>
       </c>
       <c r="X2">
-        <v>0.05299631771328964</v>
+        <v>0.05253517010327717</v>
       </c>
       <c r="Y2">
-        <v>0.03435253635290488</v>
+        <v>-3.839083150532219e-05</v>
       </c>
       <c r="Z2">
-        <v>2.148511006757669</v>
+        <v>2.045692096887486</v>
       </c>
       <c r="AA2">
-        <v>0.1246224129988283</v>
+        <v>0.1101964133461626</v>
       </c>
       <c r="AB2">
-        <v>0.04837282185715518</v>
+        <v>0.04425976416722428</v>
       </c>
       <c r="AC2">
-        <v>0.07689876557904615</v>
+        <v>0.06633885474953601</v>
       </c>
       <c r="AD2">
-        <v>20006.5</v>
+        <v>31240.6</v>
       </c>
       <c r="AE2">
-        <v>2036.078374717416</v>
+        <v>1845.391034903805</v>
       </c>
       <c r="AF2">
-        <v>22042.57837471742</v>
+        <v>33085.9910349038</v>
       </c>
       <c r="AG2">
-        <v>-11229.62162528258</v>
+        <v>-2938.708965096193</v>
       </c>
       <c r="AH2">
-        <v>0.2296772323339356</v>
+        <v>0.3252621774354412</v>
       </c>
       <c r="AI2">
-        <v>0.2208746487982993</v>
+        <v>0.3025231948548677</v>
       </c>
       <c r="AJ2">
-        <v>-0.1791014564384924</v>
+        <v>-0.04473173323490797</v>
       </c>
       <c r="AK2">
-        <v>-0.1688041006743214</v>
+        <v>-0.04006851895861068</v>
       </c>
       <c r="AL2">
-        <v>387.674</v>
+        <v>440.695</v>
       </c>
       <c r="AM2">
-        <v>386.504</v>
+        <v>440.05</v>
       </c>
       <c r="AN2">
-        <v>1.444404174704571</v>
+        <v>2.426693739887352</v>
       </c>
       <c r="AO2">
-        <v>28.97312432610905</v>
+        <v>22.91945222886577</v>
       </c>
       <c r="AP2">
-        <v>-0.8107421266043978</v>
+        <v>-0.2282717569108715</v>
       </c>
       <c r="AQ2">
-        <v>29.06082990085484</v>
+        <v>22.95304624474491</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ipet Insurance Co., Ltd. (TSE:7323)</t>
+          <t>ipet Holdings,Inc. (TSE:7339)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,22 +728,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.02308196721311475</v>
+        <v>0.02899441340782123</v>
       </c>
       <c r="H3">
-        <v>0.02308196721311475</v>
+        <v>0.02899441340782123</v>
       </c>
       <c r="I3">
-        <v>0.0297555583305616</v>
+        <v>0.0345814674970649</v>
       </c>
       <c r="J3">
-        <v>0.02249340262569452</v>
+        <v>0.0219639050319196</v>
       </c>
       <c r="K3">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="L3">
-        <v>0.02295081967213115</v>
+        <v>0.01318435754189944</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>18.9</v>
+        <v>21.7</v>
       </c>
       <c r="V3">
-        <v>0.09507042253521125</v>
+        <v>0.09410234171725933</v>
       </c>
       <c r="W3">
-        <v>0.07847533632286995</v>
+        <v>0.04729458917835671</v>
       </c>
       <c r="X3">
-        <v>0.04953939121745239</v>
+        <v>0.04531818494360672</v>
       </c>
       <c r="Y3">
-        <v>0.02893594510541755</v>
+        <v>0.001976404234749991</v>
       </c>
       <c r="Z3">
-        <v>158.6250240707675</v>
+        <v>7.799704770150726</v>
       </c>
       <c r="AA3">
-        <v>3.568016532934259</v>
+        <v>0.1713119748486008</v>
       </c>
       <c r="AB3">
-        <v>0.04879403316267879</v>
+        <v>0.0445991228433451</v>
       </c>
       <c r="AC3">
-        <v>3.51922249977158</v>
+        <v>0.1267128520052557</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>7.061386772946778</v>
+        <v>6.149586590126917</v>
       </c>
       <c r="AF3">
-        <v>7.061386772946778</v>
+        <v>6.149586590126917</v>
       </c>
       <c r="AG3">
-        <v>-11.83861322705322</v>
+        <v>-15.55041340987308</v>
       </c>
       <c r="AH3">
-        <v>0.03430165745815693</v>
+        <v>0.02597506791331129</v>
       </c>
       <c r="AI3">
-        <v>0.1209941566402267</v>
+        <v>0.1044966829241689</v>
       </c>
       <c r="AJ3">
-        <v>-0.06332116717464496</v>
+        <v>-0.07231082680252413</v>
       </c>
       <c r="AK3">
-        <v>-0.3000049971677458</v>
+        <v>-0.4185891375169662</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.708313596977377</v>
+        <v>-1.853446175193454</v>
       </c>
     </row>
     <row r="4">
@@ -847,124 +847,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0156</v>
+        <v>0.0155</v>
       </c>
       <c r="E4">
-        <v>0.271</v>
+        <v>-0.07530000000000001</v>
       </c>
       <c r="F4">
-        <v>0.151</v>
+        <v>0.09300000000000001</v>
       </c>
       <c r="G4">
-        <v>0.07842190084039286</v>
+        <v>0.09279382946232746</v>
       </c>
       <c r="H4">
-        <v>0.07842190084039286</v>
+        <v>0.09279382946232746</v>
       </c>
       <c r="I4">
-        <v>0.07280878309824776</v>
+        <v>0.08023261183800906</v>
       </c>
       <c r="J4">
-        <v>0.07280878309824776</v>
+        <v>0.06496753656983371</v>
       </c>
       <c r="K4">
-        <v>2867.6</v>
+        <v>721.5</v>
       </c>
       <c r="L4">
-        <v>0.06048972290661176</v>
+        <v>0.01560587118180678</v>
       </c>
       <c r="M4">
-        <v>1065.494</v>
+        <v>1133.08</v>
       </c>
       <c r="N4">
-        <v>0.05594642135164795</v>
+        <v>0.065953434225844</v>
       </c>
       <c r="O4">
-        <v>0.3715629794950482</v>
+        <v>1.57045045045045</v>
       </c>
       <c r="P4">
-        <v>769.2940000000001</v>
+        <v>800.88</v>
       </c>
       <c r="Q4">
-        <v>0.04039370120084642</v>
+        <v>0.04661699650756694</v>
       </c>
       <c r="R4">
-        <v>0.2682710280373832</v>
+        <v>1.11002079002079</v>
       </c>
       <c r="S4">
-        <v>296.2</v>
+        <v>332.1999999999999</v>
       </c>
       <c r="T4">
-        <v>0.2779931186848542</v>
+        <v>0.2931831821230628</v>
       </c>
       <c r="U4">
-        <v>15076.6</v>
+        <v>16412.3</v>
       </c>
       <c r="V4">
-        <v>0.7916345058257066</v>
+        <v>0.955314318975553</v>
       </c>
       <c r="W4">
-        <v>0.1118151439411368</v>
+        <v>0.02681029901937105</v>
       </c>
       <c r="X4">
-        <v>0.05708655155299974</v>
+        <v>0.05564755125706872</v>
       </c>
       <c r="Y4">
-        <v>0.05472859238813704</v>
+        <v>-0.02883725223769767</v>
       </c>
       <c r="Z4">
-        <v>2.630928091659564</v>
+        <v>2.390567896679826</v>
       </c>
       <c r="AA4">
-        <v>0.1915546727727281</v>
+        <v>0.1553093072502171</v>
       </c>
       <c r="AB4">
-        <v>0.04748304547255523</v>
+        <v>0.04389295759305838</v>
       </c>
       <c r="AC4">
-        <v>0.1440716273001729</v>
+        <v>0.1114163496571587</v>
       </c>
       <c r="AD4">
-        <v>7485.2</v>
+        <v>7671.2</v>
       </c>
       <c r="AE4">
-        <v>187.9885246561391</v>
+        <v>19.68874969030952</v>
       </c>
       <c r="AF4">
-        <v>7673.188524656139</v>
+        <v>7690.888749690309</v>
       </c>
       <c r="AG4">
-        <v>-7403.411475343862</v>
+        <v>-8721.411250309691</v>
       </c>
       <c r="AH4">
-        <v>0.2871907740546306</v>
+        <v>0.3092325661175287</v>
       </c>
       <c r="AI4">
-        <v>0.2195790826842643</v>
+        <v>0.2263364899851358</v>
       </c>
       <c r="AJ4">
-        <v>-0.6359505882485539</v>
+        <v>-1.031071672639127</v>
       </c>
       <c r="AK4">
-        <v>-0.3726226445670934</v>
+        <v>-0.4964489648850322</v>
       </c>
       <c r="AL4">
-        <v>101.4</v>
+        <v>126.7</v>
       </c>
       <c r="AM4">
-        <v>101.4</v>
+        <v>126.7</v>
       </c>
       <c r="AN4">
-        <v>1.787083681508893</v>
+        <v>1.721659896312588</v>
       </c>
       <c r="AO4">
-        <v>33.83037475345168</v>
+        <v>29.22020520915548</v>
       </c>
       <c r="AP4">
-        <v>-1.767556756677537</v>
+        <v>-1.957360515813383</v>
       </c>
       <c r="AQ4">
-        <v>33.83037475345168</v>
+        <v>29.22020520915548</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tokio Marine Holdings, Inc. (TSE:8766)</t>
+          <t>Sompo Holdings, Inc. (TSE:8630)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,124 +984,124 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0507</v>
+        <v>0.0268</v>
       </c>
       <c r="E5">
-        <v>0.07440000000000001</v>
+        <v>0.119</v>
       </c>
       <c r="F5">
-        <v>0.0654</v>
+        <v>0.163</v>
       </c>
       <c r="G5">
-        <v>0.1063925417350015</v>
+        <v>0.0838555254497004</v>
       </c>
       <c r="H5">
-        <v>0.1063925417350015</v>
+        <v>0.0838555254497004</v>
       </c>
       <c r="I5">
-        <v>0.1041561792990603</v>
+        <v>0.06877643095031641</v>
       </c>
       <c r="J5">
-        <v>0.07549439730695115</v>
+        <v>0.0450935072344845</v>
       </c>
       <c r="K5">
-        <v>3120.5</v>
+        <v>1120.7</v>
       </c>
       <c r="L5">
-        <v>0.06233532228390388</v>
+        <v>0.03133711940094009</v>
       </c>
       <c r="M5">
-        <v>1916.562</v>
+        <v>767.25</v>
       </c>
       <c r="N5">
-        <v>0.04854882589862451</v>
+        <v>0.05346019314650428</v>
       </c>
       <c r="O5">
-        <v>0.6141842653420926</v>
+        <v>0.6846167573837779</v>
       </c>
       <c r="P5">
-        <v>1200.762</v>
+        <v>521.85</v>
       </c>
       <c r="Q5">
-        <v>0.03041674899308458</v>
+        <v>0.03636129266015413</v>
       </c>
       <c r="R5">
-        <v>0.3847979490466271</v>
+        <v>0.4656464709556527</v>
       </c>
       <c r="S5">
-        <v>715.8</v>
+        <v>245.4</v>
       </c>
       <c r="T5">
-        <v>0.3734812648899435</v>
+        <v>0.3198435972629521</v>
       </c>
       <c r="U5">
-        <v>7138.2</v>
+        <v>10217.1</v>
       </c>
       <c r="V5">
-        <v>0.1808192111862603</v>
+        <v>0.7119037333296172</v>
       </c>
       <c r="W5">
-        <v>0.09646148186845628</v>
+        <v>0.07048073052928155</v>
       </c>
       <c r="X5">
-        <v>0.0530998781738843</v>
+        <v>0.05509030500959172</v>
       </c>
       <c r="Y5">
-        <v>0.04336160369457198</v>
+        <v>0.01539042551968983</v>
       </c>
       <c r="Z5">
-        <v>1.691986784630278</v>
+        <v>3.217272088885444</v>
       </c>
       <c r="AA5">
-        <v>0.127735522556989</v>
+        <v>0.1450780822154608</v>
       </c>
       <c r="AB5">
-        <v>0.0480116535846325</v>
+        <v>0.04392040549110345</v>
       </c>
       <c r="AC5">
-        <v>0.07972386897235648</v>
+        <v>0.1011576767243574</v>
       </c>
       <c r="AD5">
-        <v>7849</v>
+        <v>4767</v>
       </c>
       <c r="AE5">
-        <v>395.2603995348466</v>
+        <v>1331.845664265598</v>
       </c>
       <c r="AF5">
-        <v>8244.260399534847</v>
+        <v>6098.845664265597</v>
       </c>
       <c r="AG5">
-        <v>1106.060399534847</v>
+        <v>-4118.254335734403</v>
       </c>
       <c r="AH5">
-        <v>0.1727586474144175</v>
+        <v>0.298222646090945</v>
       </c>
       <c r="AI5">
-        <v>0.1949939952456447</v>
+        <v>0.2719767234648552</v>
       </c>
       <c r="AJ5">
-        <v>0.02725423831139962</v>
+        <v>-0.4024269271709892</v>
       </c>
       <c r="AK5">
-        <v>0.03147460391287207</v>
+        <v>-0.3373669968147995</v>
       </c>
       <c r="AL5">
-        <v>157.6</v>
+        <v>134.3</v>
       </c>
       <c r="AM5">
-        <v>157.6</v>
+        <v>134.3</v>
       </c>
       <c r="AN5">
-        <v>1.261126642886982</v>
+        <v>1.427288242162939</v>
       </c>
       <c r="AO5">
-        <v>33.0742385786802</v>
+        <v>19.13700670141474</v>
       </c>
       <c r="AP5">
-        <v>0.1777146437120164</v>
+        <v>-1.233047197740772</v>
       </c>
       <c r="AQ5">
-        <v>33.0742385786802</v>
+        <v>19.13700670141474</v>
       </c>
     </row>
     <row r="6">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sompo Holdings, Inc. (TSE:8630)</t>
+          <t>Tokio Marine Holdings, Inc. (TSE:8766)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1121,124 +1121,124 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0336</v>
+        <v>0.04480000000000001</v>
       </c>
       <c r="E6">
-        <v>0.408</v>
+        <v>0.0158</v>
       </c>
       <c r="F6">
-        <v>0.26</v>
+        <v>-0.0294</v>
       </c>
       <c r="G6">
-        <v>0.08254297137187382</v>
+        <v>0.09863391181988743</v>
       </c>
       <c r="H6">
-        <v>0.08254297137187382</v>
+        <v>0.09863391181988743</v>
       </c>
       <c r="I6">
-        <v>0.0719104567808829</v>
+        <v>0.07390421882676908</v>
       </c>
       <c r="J6">
-        <v>0.04978743938534241</v>
+        <v>0.05146381640129809</v>
       </c>
       <c r="K6">
-        <v>1558.1</v>
+        <v>1948.8</v>
       </c>
       <c r="L6">
-        <v>0.0454694020486182</v>
+        <v>0.03808630393996248</v>
       </c>
       <c r="M6">
-        <v>809.4300000000001</v>
+        <v>1536.785</v>
       </c>
       <c r="N6">
-        <v>0.05627059494181277</v>
+        <v>0.04280714313569284</v>
       </c>
       <c r="O6">
-        <v>0.5194981066683783</v>
+        <v>0.7885801518883416</v>
       </c>
       <c r="P6">
-        <v>473.33</v>
+        <v>1291.485</v>
       </c>
       <c r="Q6">
-        <v>0.03290532931051263</v>
+        <v>0.03597431212082385</v>
       </c>
       <c r="R6">
-        <v>0.3037866632436943</v>
+        <v>0.6627078201970444</v>
       </c>
       <c r="S6">
-        <v>336.1</v>
+        <v>245.3</v>
       </c>
       <c r="T6">
-        <v>0.4152304708251486</v>
+        <v>0.1596189447450359</v>
       </c>
       <c r="U6">
-        <v>10770.9</v>
+        <v>9019</v>
       </c>
       <c r="V6">
-        <v>0.7487799452191927</v>
+        <v>0.2512242271630799</v>
       </c>
       <c r="W6">
-        <v>0.09622237180951909</v>
+        <v>0.05769896936518698</v>
       </c>
       <c r="X6">
-        <v>0.05750752094068506</v>
+        <v>0.05779652646369532</v>
       </c>
       <c r="Y6">
-        <v>0.03871485086883403</v>
+        <v>-9.755709850833849e-05</v>
       </c>
       <c r="Z6">
-        <v>2.440561413496599</v>
+        <v>1.46345043456522</v>
       </c>
       <c r="AA6">
-        <v>0.1215093034406675</v>
+        <v>0.07531474447686437</v>
       </c>
       <c r="AB6">
-        <v>0.04743564125493171</v>
+        <v>0.04379471170214974</v>
       </c>
       <c r="AC6">
-        <v>0.07407366218573583</v>
+        <v>0.03152003277471463</v>
       </c>
       <c r="AD6">
-        <v>4654.1</v>
+        <v>18737.8</v>
       </c>
       <c r="AE6">
-        <v>1436.221887447431</v>
+        <v>477.8446553593975</v>
       </c>
       <c r="AF6">
-        <v>6090.321887447431</v>
+        <v>19215.6446553594</v>
       </c>
       <c r="AG6">
-        <v>-4680.578112552568</v>
+        <v>10196.6446553594</v>
       </c>
       <c r="AH6">
-        <v>0.2974527532230161</v>
+        <v>0.3486410264691623</v>
       </c>
       <c r="AI6">
-        <v>0.274952861773653</v>
+        <v>0.3663217711193667</v>
       </c>
       <c r="AJ6">
-        <v>-0.4823338371286133</v>
+        <v>0.2212004906538412</v>
       </c>
       <c r="AK6">
-        <v>-0.4113158846959676</v>
+        <v>0.2347475210450283</v>
       </c>
       <c r="AL6">
-        <v>128.6</v>
+        <v>179.6</v>
       </c>
       <c r="AM6">
-        <v>128.6</v>
+        <v>179.6</v>
       </c>
       <c r="AN6">
-        <v>1.366963315416924</v>
+        <v>3.729731881605923</v>
       </c>
       <c r="AO6">
-        <v>20</v>
+        <v>21.12472160356348</v>
       </c>
       <c r="AP6">
-        <v>-1.374740245117798</v>
+        <v>2.029627312518043</v>
       </c>
       <c r="AQ6">
-        <v>20</v>
+        <v>21.12472160356348</v>
       </c>
     </row>
     <row r="7">
@@ -1258,37 +1258,34 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.163</v>
-      </c>
-      <c r="E7">
-        <v>-0.184</v>
+        <v>0.129</v>
       </c>
       <c r="G7">
-        <v>0.01746111389864526</v>
+        <v>0.01299458558933778</v>
       </c>
       <c r="H7">
-        <v>0.01746111389864526</v>
+        <v>0.01299458558933778</v>
       </c>
       <c r="I7">
-        <v>0.01027478544299754</v>
+        <v>0.009352453978864477</v>
       </c>
       <c r="J7">
-        <v>0.005137392721498771</v>
+        <v>0.004676226989432239</v>
       </c>
       <c r="K7">
-        <v>-1.64</v>
+        <v>-2.82</v>
       </c>
       <c r="L7">
-        <v>-0.008228800802809834</v>
+        <v>-0.0117451062057476</v>
       </c>
       <c r="M7">
-        <v>2.77</v>
+        <v>0.066</v>
       </c>
       <c r="N7">
-        <v>0.01984240687679083</v>
+        <v>0.0005284227381905525</v>
       </c>
       <c r="O7">
-        <v>-1.689024390243903</v>
+        <v>-0.02340425531914894</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1300,79 +1297,79 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>2.77</v>
+        <v>0.066</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="U7">
-        <v>34</v>
+        <v>60.9</v>
       </c>
       <c r="V7">
-        <v>0.2435530085959886</v>
+        <v>0.4875900720576461</v>
       </c>
       <c r="W7">
-        <v>-0.016318407960199</v>
+        <v>-0.02805970149253731</v>
       </c>
       <c r="X7">
-        <v>0.05289275725269499</v>
+        <v>0.04998003519696262</v>
       </c>
       <c r="Y7">
-        <v>-0.069211165212894</v>
+        <v>-0.07803973668949993</v>
       </c>
       <c r="Z7">
-        <v>4.157611544307387</v>
+        <v>2.665634045308567</v>
       </c>
       <c r="AA7">
-        <v>0.02135928328654403</v>
+        <v>0.01246510986662136</v>
       </c>
       <c r="AB7">
-        <v>0.04873399012967786</v>
+        <v>0.04503537811047088</v>
       </c>
       <c r="AC7">
-        <v>-0.02737470684313383</v>
+        <v>-0.03257026824384952</v>
       </c>
       <c r="AD7">
-        <v>18.2</v>
+        <v>17.2</v>
       </c>
       <c r="AE7">
-        <v>9.546176306052949</v>
+        <v>9.862378998373195</v>
       </c>
       <c r="AF7">
-        <v>27.74617630605295</v>
+        <v>27.06237899837319</v>
       </c>
       <c r="AG7">
-        <v>-6.253823693947052</v>
+        <v>-33.8376210016268</v>
       </c>
       <c r="AH7">
-        <v>0.1658010772550252</v>
+        <v>0.1780860445641148</v>
       </c>
       <c r="AI7">
-        <v>0.1798824254223288</v>
+        <v>0.161602738240307</v>
       </c>
       <c r="AJ7">
-        <v>-0.0468991602698335</v>
+        <v>-0.371587272085559</v>
       </c>
       <c r="AK7">
-        <v>-0.05200850360538447</v>
+        <v>-0.3175381529549314</v>
       </c>
       <c r="AL7">
-        <v>0.074</v>
+        <v>0.095</v>
       </c>
       <c r="AM7">
-        <v>-1.096</v>
+        <v>-0.55</v>
       </c>
       <c r="AN7">
-        <v>2.633863965267728</v>
+        <v>2.408963585434174</v>
       </c>
       <c r="AO7">
-        <v>-4.500000000000001</v>
+        <v>-3.389473684210526</v>
       </c>
       <c r="AP7">
-        <v>-0.9050396083859699</v>
+        <v>-4.739162605269859</v>
       </c>
       <c r="AQ7">
-        <v>0.3038321167883212</v>
+        <v>0.5854545454545454</v>
       </c>
     </row>
     <row r="8">
@@ -1392,49 +1389,46 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.138</v>
+        <v>0.127</v>
       </c>
       <c r="E8">
-        <v>0.0687</v>
-      </c>
-      <c r="F8">
-        <v>0.288</v>
+        <v>0.0738</v>
       </c>
       <c r="G8">
-        <v>0.07450980392156863</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="H8">
-        <v>0.07450980392156863</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="I8">
-        <v>0.04033613445378152</v>
+        <v>0.07052483598875352</v>
       </c>
       <c r="J8">
-        <v>0.02866636731028289</v>
+        <v>0.0483714237678588</v>
       </c>
       <c r="K8">
-        <v>9.26</v>
+        <v>18</v>
       </c>
       <c r="L8">
-        <v>0.02593837535014006</v>
+        <v>0.04217432052483599</v>
       </c>
       <c r="M8">
-        <v>0.9291999999999999</v>
+        <v>0.9744</v>
       </c>
       <c r="N8">
-        <v>0.001357487216946676</v>
+        <v>0.001149734513274336</v>
       </c>
       <c r="O8">
-        <v>0.1003455723542117</v>
+        <v>0.05413333333333334</v>
       </c>
       <c r="P8">
-        <v>0.9291999999999999</v>
+        <v>0.9744</v>
       </c>
       <c r="Q8">
-        <v>0.001357487216946676</v>
+        <v>0.001149734513274336</v>
       </c>
       <c r="R8">
-        <v>0.1003455723542117</v>
+        <v>0.05413333333333334</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1443,55 +1437,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>233.6</v>
+        <v>293.7</v>
       </c>
       <c r="V8">
-        <v>0.3412710007304602</v>
+        <v>0.3465486725663717</v>
       </c>
       <c r="W8">
-        <v>0.06076115485564304</v>
+        <v>0.08604206500956023</v>
       </c>
       <c r="X8">
-        <v>0.04880969540327215</v>
+        <v>0.04603612778018845</v>
       </c>
       <c r="Y8">
-        <v>0.01195145945237089</v>
+        <v>0.04000593722937178</v>
       </c>
       <c r="Z8">
-        <v>-6.972656250000002</v>
+        <v>-17.49180327868852</v>
       </c>
       <c r="AA8">
-        <v>-0.1998807251908397</v>
+        <v>-0.8461034288574645</v>
       </c>
       <c r="AB8">
-        <v>0.04880969540327215</v>
+        <v>0.04477437128425165</v>
       </c>
       <c r="AC8">
-        <v>-0.2486904205941119</v>
+        <v>-0.8908778001417161</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="AG8">
-        <v>-233.6</v>
+        <v>-246.3</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.05296681193429433</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.1688034188034188</v>
       </c>
       <c r="AJ8">
-        <v>-0.5180749611887336</v>
+        <v>-0.4096806387225548</v>
       </c>
       <c r="AK8">
-        <v>9.573770491803277</v>
+        <v>19.09302325581399</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1500,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.224806201550388</v>
       </c>
       <c r="AP8">
-        <v>-11.56435643564356</v>
+        <v>-6.364341085271317</v>
       </c>
     </row>
   </sheetData>
